--- a/BASE_FINAL.xlsx
+++ b/BASE_FINAL.xlsx
@@ -28822,7 +28822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29307,7 +29307,7 @@
     </row>
     <row r="10">
       <c r="A10" s="16" t="n">
-        <v>45834.68921145514</v>
+        <v>45834.68921145833</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -29317,10 +29317,8 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5910</t>
-        </is>
+      <c r="D10" t="n">
+        <v>5910</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -29352,6 +29350,190 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="16" t="n">
+        <v>45834.74186575232</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IFZ</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5266</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MARCO PAREDES</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="n">
+        <v>45834.74186575232</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IFZ</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1313</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PAULO CRIOLLO</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="n">
+        <v>45834.74207893747</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IFZ</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5266</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MARCO PAREDES</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="n">
+        <v>45834.74207893747</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IFZ</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>PAULO CRIOLLO</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
